--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\python-learn\pythonProject1\githubmeidi\当日库存情况\量化需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CA63B5-B1ED-4D8B-8807-3415AAE6962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A93C6-CB28-477C-BFF0-8C7416E4DD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="2325" windowWidth="26340" windowHeight="18360" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
+    <workbookView xWindow="17115" yWindow="2640" windowWidth="31125" windowHeight="17190" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
   <sheets>
     <sheet name="2503" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="169">
   <si>
     <t>编号</t>
   </si>
@@ -156,9 +156,6 @@
     <t>0539</t>
   </si>
   <si>
-    <t>0955</t>
-  </si>
-  <si>
     <t>1175</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>1797</t>
-  </si>
-  <si>
-    <t>1816</t>
   </si>
   <si>
     <t>2995</t>
@@ -967,10 +961,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1000/年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>新品.上量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -979,18 +969,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新品.上量.保6月前</t>
-  </si>
-  <si>
-    <t>新品.上量.保6月前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>周2025-03-14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>李圆3月重庆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0955</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1816</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3375</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,6 +1179,9 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1520,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1541,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1606,10 +1604,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="11"/>
     </row>
@@ -1618,10 +1616,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11"/>
     </row>
@@ -1630,10 +1628,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -1660,7 +1658,7 @@
         <v>1000</v>
       </c>
       <c r="D12" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1674,7 +1672,7 @@
         <v>5000</v>
       </c>
       <c r="D13" s="11">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1682,10 +1680,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -1716,7 +1714,7 @@
         <v>2000</v>
       </c>
       <c r="D17" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1726,7 +1724,9 @@
       <c r="B18" s="11">
         <v>500</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="11">
+        <v>500</v>
+      </c>
       <c r="D18" s="11">
         <v>1000</v>
       </c>
@@ -1736,13 +1736,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D19" s="11">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1750,10 +1750,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -1776,7 +1776,7 @@
         <v>5000</v>
       </c>
       <c r="D22" s="11">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1822,7 +1822,7 @@
         <v>5000</v>
       </c>
       <c r="D27" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,7 +1836,7 @@
         <v>5000</v>
       </c>
       <c r="D28" s="11">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1851,14 +1851,14 @@
       <c r="A30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>164</v>
+      <c r="B30" s="14">
+        <v>500</v>
+      </c>
+      <c r="C30" s="14">
+        <v>500</v>
       </c>
       <c r="D30" s="11">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1872,7 +1872,7 @@
         <v>5000</v>
       </c>
       <c r="D31" s="11">
-        <v>10000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1912,12 +1912,12 @@
         <v>1500</v>
       </c>
       <c r="D34" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>34</v>
+      <c r="A35" s="12">
+        <v>5891</v>
       </c>
       <c r="B35" s="11">
         <v>1000</v>
@@ -1925,29 +1925,41 @@
       <c r="C35" s="11">
         <v>1000</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="11">
+        <v>5000</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1000</v>
+      </c>
       <c r="D36" s="11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="11">
+        <v>3000</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1955,67 +1967,61 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11">
-        <v>2000</v>
-      </c>
-      <c r="C39" s="11">
-        <v>2000</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="11">
-        <v>500</v>
-      </c>
-      <c r="C42" s="11">
-        <v>500</v>
-      </c>
-      <c r="D42" s="11">
-        <v>1000</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="11">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C43" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D43" s="11">
-        <v>2000</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="11">
         <v>1000</v>
@@ -2024,34 +2030,66 @@
         <v>1000</v>
       </c>
       <c r="D44" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D45" s="11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="D47" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="11">
+        <v>500</v>
+      </c>
+      <c r="C48" s="11">
+        <v>500</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2076,160 +2114,160 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15">
         <v>4588</v>
@@ -2237,30 +2275,30 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16">
         <v>515</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H17">
         <v>273</v>
@@ -2268,13 +2306,13 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H18">
         <v>4328</v>
@@ -2282,13 +2320,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H19">
         <v>4791</v>
@@ -2296,38 +2334,38 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2339,37 +2377,37 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -2381,18 +2419,18 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2401,127 +2439,127 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2533,119 +2571,119 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H41" s="8">
         <v>1796</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K41" s="8"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="H42">
         <v>1797</v>
       </c>
       <c r="J42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H43">
         <v>1755</v>
       </c>
       <c r="J43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H46">
         <v>5855</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A93C6-CB28-477C-BFF0-8C7416E4DD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BEECD9-DC92-414B-AB1B-28E82F22BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17115" yWindow="2640" windowWidth="31125" windowHeight="17190" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
   <sheets>
     <sheet name="2503" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2503 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2503'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="172">
   <si>
     <t>编号</t>
   </si>
@@ -986,6 +990,18 @@
   </si>
   <si>
     <t>3375</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5891</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0395</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3275</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +1013,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,6 +1079,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1134,7 +1158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,6 +1205,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1518,23 +1548,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1551,345 +1581,369 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="11">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11">
+        <v>500</v>
+      </c>
+      <c r="C14" s="11">
+        <v>500</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C13" s="11">
-        <v>5000</v>
-      </c>
-      <c r="D13" s="11">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
+        <v>19</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8000</v>
+      </c>
+      <c r="C19" s="11">
+        <v>8000</v>
+      </c>
+      <c r="D19" s="11">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="11">
         <v>2000</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C20" s="11">
         <v>2000</v>
       </c>
-      <c r="D17" s="11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>500</v>
-      </c>
-      <c r="C18" s="11">
-        <v>500</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="11">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C22" s="11">
-        <v>5000</v>
-      </c>
-      <c r="D22" s="11">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="11">
+        <v>500</v>
+      </c>
+      <c r="C26" s="11">
+        <v>500</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="11">
+        <v>500</v>
+      </c>
+      <c r="C29" s="11">
+        <v>500</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C27" s="11">
-        <v>5000</v>
-      </c>
-      <c r="D27" s="11">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C28" s="11">
-        <v>5000</v>
-      </c>
-      <c r="D28" s="11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="14">
+      <c r="B30" s="11">
         <v>500</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <v>500</v>
       </c>
       <c r="D30" s="11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B31" s="11">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="C31" s="11">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D31" s="11">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="16">
         <v>500</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="17">
         <v>500</v>
       </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>32</v>
+      <c r="D32" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="B33" s="11">
         <v>500</v>
@@ -1898,200 +1952,203 @@
         <v>500</v>
       </c>
       <c r="D33" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C35" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D35" s="11">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C36" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D36" s="11">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C39" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D39" s="11">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="11">
-        <v>1500</v>
-      </c>
-      <c r="C34" s="11">
-        <v>1500</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="B43" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C43" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>5891</v>
-      </c>
-      <c r="B35" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C35" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D35" s="11">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C36" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D36" s="11">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="B45" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D45" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C37" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D37" s="11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="11">
-        <v>2000</v>
-      </c>
-      <c r="C40" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D40" s="11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="11">
+      <c r="B46" s="11">
         <v>500</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C46" s="11">
         <v>500</v>
       </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C44" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D44" s="11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C45" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D45" s="11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C46" s="11">
-        <v>1000</v>
-      </c>
       <c r="D46" s="11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>168</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="11">
-        <v>500</v>
-      </c>
-      <c r="C48" s="11">
-        <v>500</v>
-      </c>
-      <c r="D48" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2105,14 +2162,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>164</v>
       </c>
@@ -2120,7 +2177,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
@@ -2131,7 +2188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
@@ -2142,7 +2199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -2153,7 +2210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
@@ -2164,7 +2221,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
@@ -2175,7 +2232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
@@ -2186,7 +2243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
@@ -2197,7 +2254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
@@ -2208,7 +2265,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
@@ -2219,7 +2276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>68</v>
@@ -2228,7 +2285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
@@ -2239,7 +2296,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
@@ -2250,7 +2307,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>159</v>
       </c>
@@ -2261,7 +2318,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>78</v>
@@ -2273,7 +2330,7 @@
         <v>4588</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
@@ -2290,7 +2347,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2304,7 +2361,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
@@ -2318,7 +2375,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>159</v>
       </c>
@@ -2332,7 +2389,7 @@
         <v>4791</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>161</v>
       </c>
@@ -2346,7 +2403,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
@@ -2357,7 +2414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>73</v>
       </c>
@@ -2375,7 +2432,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
@@ -2386,7 +2443,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
@@ -2397,12 +2454,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
@@ -2417,7 +2474,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>73</v>
       </c>
@@ -2437,7 +2494,7 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>73</v>
       </c>
@@ -2448,7 +2505,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
@@ -2459,7 +2516,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
@@ -2470,7 +2527,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="2"/>
       <c r="C31" s="4" t="s">
         <v>111</v>
@@ -2479,7 +2536,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="s">
         <v>113</v>
       </c>
@@ -2490,7 +2547,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>113</v>
       </c>
@@ -2501,7 +2558,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="s">
         <v>118</v>
       </c>
@@ -2512,7 +2569,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
@@ -2529,7 +2586,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>123</v>
       </c>
@@ -2540,7 +2597,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2551,7 +2608,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>48</v>
       </c>
@@ -2569,7 +2626,7 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
         <v>82</v>
       </c>
@@ -2580,7 +2637,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40" s="2" t="s">
         <v>162</v>
       </c>
@@ -2591,7 +2648,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>132</v>
       </c>
@@ -2610,7 +2667,7 @@
       </c>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="2" t="s">
         <v>137</v>
       </c>
@@ -2627,7 +2684,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
         <v>82</v>
       </c>
@@ -2644,7 +2701,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B44" s="2" t="s">
         <v>70</v>
       </c>
@@ -2655,7 +2712,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
@@ -2666,7 +2723,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B46" s="2" t="s">
         <v>132</v>
       </c>
@@ -2685,6 +2742,587 @@
       <c r="K46" t="s">
         <v>156</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B163070B-581F-4701-B7D7-565DF129328E}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="11">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>500</v>
+      </c>
+      <c r="C18" s="11">
+        <v>500</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="11">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D22" s="11">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C27" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D27" s="11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14">
+        <v>500</v>
+      </c>
+      <c r="C30" s="14">
+        <v>500</v>
+      </c>
+      <c r="D30" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C31" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D31" s="11">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>500</v>
+      </c>
+      <c r="C32" s="11">
+        <v>500</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>500</v>
+      </c>
+      <c r="C33" s="11">
+        <v>500</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D34" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="12">
+        <v>5891</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="11">
+        <v>500</v>
+      </c>
+      <c r="C43" s="11">
+        <v>500</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D45" s="11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="11">
+        <v>500</v>
+      </c>
+      <c r="C48" s="11">
+        <v>500</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BEECD9-DC92-414B-AB1B-28E82F22BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0CE028-959A-445D-AD1A-FE96614BE069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E35:E36"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1778,10 +1778,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="11">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="C19" s="11">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D19" s="11">
         <v>35000</v>
@@ -1903,15 +1903,9 @@
       <c r="A30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="11">
-        <v>500</v>
-      </c>
-      <c r="C30" s="11">
-        <v>500</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1000</v>
-      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD22FEE5-1830-43C7-9692-3971D2BEF47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991CC58-7708-4A7F-874E-A74FE9ABBE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6308" yWindow="772" windowWidth="15389" windowHeight="12555" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
   <sheets>
     <sheet name="2503" sheetId="1" r:id="rId1"/>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -768,7 +768,6 @@
     <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -789,156 +788,148 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3">
-        <v>500</v>
-      </c>
-      <c r="C2" s="3">
-        <v>500</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="6">
-        <v>500</v>
-      </c>
-      <c r="C3" s="6">
-        <v>500</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1000</v>
-      </c>
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3">
-        <v>500</v>
-      </c>
-      <c r="C4" s="3">
-        <v>500</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="3">
-        <v>500</v>
-      </c>
-      <c r="C5" s="3">
-        <v>500</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="3">
         <v>1000</v>
       </c>
       <c r="D7" s="3">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C8" s="3">
-        <v>500</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>5000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>35000</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
-        <v>32</v>
+      <c r="A10" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3">
         <v>2000</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>2000</v>
       </c>
-      <c r="D11" s="3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
       <c r="D12" s="3">
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>500</v>
+      </c>
+      <c r="C13" s="3">
+        <v>500</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
-        <v>56</v>
+      <c r="A14" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -946,93 +937,79 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9000</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3">
-        <v>500</v>
-      </c>
-      <c r="C16" s="3">
-        <v>500</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="3">
-        <v>500</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2000</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
-        <v>52</v>
+      <c r="A18" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B18" s="3">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C18" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D18" s="3">
-        <v>2000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5000</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="3">
-        <v>800</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3000</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1040,79 +1017,79 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D23" s="3">
-        <v>15000</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5">
-        <v>500</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1000</v>
+        <v>43</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5000</v>
       </c>
       <c r="D24" s="3">
-        <v>2000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>18000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5000</v>
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <v>500</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1000</v>
       </c>
       <c r="D27" s="3">
-        <v>35000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>17000</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1120,160 +1097,168 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B30" s="3">
+        <v>800</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="11">
+        <v>4000</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
-        <v>27</v>
+      <c r="A33" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B33" s="3">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="C33" s="3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D33" s="3">
-        <v>35000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B34" s="3">
+        <v>500</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B35" s="3">
+        <v>500</v>
+      </c>
+      <c r="C35" s="3">
+        <v>500</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2000</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C36" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D36" s="3">
-        <v>10000</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="8" t="s">
-        <v>23</v>
+      <c r="A37" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="3">
-        <v>500</v>
-      </c>
-      <c r="C38" s="3">
-        <v>500</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="A39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
         <v>2000</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7000</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>18</v>
+      <c r="A41" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B43" s="3">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="C43" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D43" s="3">
-        <v>47000</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B44" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="C44" s="3">
         <v>1000</v>
@@ -1284,59 +1269,73 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>2000</v>
+      </c>
+      <c r="D45" s="3">
+        <v>8000</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="3"/>
+      <c r="A46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="3">
+        <v>500</v>
+      </c>
+      <c r="C46" s="3">
+        <v>500</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="3">
+        <v>500</v>
+      </c>
+      <c r="C47" s="3">
+        <v>500</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="6">
+        <v>500</v>
+      </c>
+      <c r="C48" s="6">
+        <v>500</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1000</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="3">
+        <v>500</v>
+      </c>
+      <c r="C49" s="3">
+        <v>500</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
@@ -1347,7 +1346,7 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E49">
-      <sortCondition descending="1" ref="A1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991CC58-7708-4A7F-874E-A74FE9ABBE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0848C6-6AB3-4D1A-AF16-40DA047AACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>编号</t>
   </si>
@@ -53,9 +53,6 @@
     <t>月计划</t>
   </si>
   <si>
-    <t>月已发总量</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -264,6 +261,17 @@
   </si>
   <si>
     <t>07672</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家</t>
+  </si>
+  <si>
+    <t>独家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,6 +426,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -767,7 +778,7 @@
     <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -784,56 +795,67 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>1000</v>
@@ -841,11 +863,16 @@
       <c r="C6" s="3">
         <v>1000</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>1000</v>
@@ -854,12 +881,12 @@
         <v>1000</v>
       </c>
       <c r="D7" s="3">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>5000</v>
@@ -868,40 +895,46 @@
         <v>5000</v>
       </c>
       <c r="D8" s="3">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>2000</v>
@@ -910,12 +943,12 @@
         <v>2000</v>
       </c>
       <c r="D12" s="3">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>500</v>
@@ -924,20 +957,22 @@
         <v>500</v>
       </c>
       <c r="D13" s="3">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>5000</v>
@@ -946,32 +981,36 @@
         <v>5000</v>
       </c>
       <c r="D15" s="3">
-        <v>9000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3">
         <v>5000</v>
@@ -980,52 +1019,62 @@
         <v>5000</v>
       </c>
       <c r="D18" s="3">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3">
         <v>5000</v>
@@ -1034,12 +1083,12 @@
         <v>5000</v>
       </c>
       <c r="D24" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="3">
         <v>5000</v>
@@ -1048,20 +1097,22 @@
         <v>5000</v>
       </c>
       <c r="D25" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5">
         <v>500</v>
@@ -1070,12 +1121,12 @@
         <v>1000</v>
       </c>
       <c r="D27" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3">
         <v>5000</v>
@@ -1084,20 +1135,22 @@
         <v>5000</v>
       </c>
       <c r="D28" s="3">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="3">
         <v>800</v>
@@ -1106,20 +1159,25 @@
         <v>1000</v>
       </c>
       <c r="D30" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1250</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3">
         <v>1500</v>
@@ -1128,12 +1186,12 @@
         <v>2000</v>
       </c>
       <c r="D32" s="11">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3">
         <v>500</v>
@@ -1142,12 +1200,12 @@
         <v>1000</v>
       </c>
       <c r="D33" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3">
         <v>500</v>
@@ -1156,60 +1214,66 @@
         <v>1000</v>
       </c>
       <c r="D34" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="3">
+        <v>500</v>
+      </c>
+      <c r="C35" s="3">
+        <v>500</v>
+      </c>
+      <c r="D35" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B35" s="3">
-        <v>500</v>
-      </c>
-      <c r="C35" s="3">
-        <v>500</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="3">
         <v>2000</v>
@@ -1218,44 +1282,50 @@
         <v>2000</v>
       </c>
       <c r="D40" s="3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="3">
+        <v>500</v>
+      </c>
+      <c r="C43" s="3">
+        <v>500</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B43" s="3">
-        <v>500</v>
-      </c>
-      <c r="C43" s="3">
-        <v>500</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="B44" s="3">
         <v>800</v>
@@ -1264,12 +1334,12 @@
         <v>1000</v>
       </c>
       <c r="D44" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="3">
         <v>2000</v>
@@ -1278,12 +1348,12 @@
         <v>2000</v>
       </c>
       <c r="D45" s="3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="3">
         <v>500</v>
@@ -1292,41 +1362,44 @@
         <v>500</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="3">
+        <v>500</v>
+      </c>
+      <c r="C47" s="3">
+        <v>500</v>
+      </c>
+      <c r="D47" s="3">
+        <v>250</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="3">
-        <v>500</v>
-      </c>
-      <c r="C47" s="3">
-        <v>500</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="8" t="s">
+      <c r="B48" s="6">
+        <v>500</v>
+      </c>
+      <c r="C48" s="6">
+        <v>500</v>
+      </c>
+      <c r="D48" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="6">
-        <v>500</v>
-      </c>
-      <c r="C48" s="6">
-        <v>500</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="B49" s="3">
         <v>500</v>
       </c>
@@ -1334,14 +1407,19 @@
         <v>500</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0848C6-6AB3-4D1A-AF16-40DA047AACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41DE156-FB35-4347-9F52-2DC4B0D914AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2503'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,10 +425,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -778,7 +781,7 @@
     <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -807,6 +810,7 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
@@ -838,6 +842,7 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -852,6 +857,7 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
@@ -883,6 +889,7 @@
       <c r="D7" s="3">
         <v>250</v>
       </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
@@ -897,6 +904,7 @@
       <c r="D8" s="3">
         <v>8750</v>
       </c>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
@@ -911,6 +919,7 @@
       <c r="D9" s="3">
         <v>0</v>
       </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
@@ -921,6 +930,7 @@
       <c r="D10" s="3">
         <v>0</v>
       </c>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
@@ -931,6 +941,7 @@
       <c r="D11" s="3">
         <v>0</v>
       </c>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
@@ -945,6 +956,7 @@
       <c r="D12" s="3">
         <v>500</v>
       </c>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
@@ -959,6 +971,7 @@
       <c r="D13" s="3">
         <v>250</v>
       </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
@@ -969,6 +982,7 @@
       <c r="D14" s="3">
         <v>0</v>
       </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
@@ -983,6 +997,7 @@
       <c r="D15" s="3">
         <v>2250</v>
       </c>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
@@ -997,6 +1012,7 @@
       <c r="D16" s="3">
         <v>0</v>
       </c>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
@@ -1007,6 +1023,7 @@
       <c r="D17" s="3">
         <v>0</v>
       </c>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
@@ -1021,6 +1038,7 @@
       <c r="D18" s="3">
         <v>9750</v>
       </c>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
@@ -1031,6 +1049,7 @@
       <c r="D19" s="3">
         <v>0</v>
       </c>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
@@ -1041,6 +1060,7 @@
       <c r="D20" s="3">
         <v>0</v>
       </c>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
@@ -1051,6 +1071,7 @@
       <c r="D21" s="3">
         <v>0</v>
       </c>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
@@ -1061,6 +1082,7 @@
       <c r="D22" s="3">
         <v>0</v>
       </c>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
@@ -1071,6 +1093,7 @@
       <c r="D23" s="3">
         <v>0</v>
       </c>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
@@ -1085,6 +1108,7 @@
       <c r="D24" s="3">
         <v>6250</v>
       </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
@@ -1099,6 +1123,9 @@
       <c r="D25" s="3">
         <v>2500</v>
       </c>
+      <c r="E25" s="13">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
@@ -1109,6 +1136,7 @@
       <c r="D26" s="3">
         <v>0</v>
       </c>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
@@ -1123,6 +1151,7 @@
       <c r="D27" s="3">
         <v>250</v>
       </c>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
@@ -1137,6 +1166,9 @@
       <c r="D28" s="3">
         <v>4250</v>
       </c>
+      <c r="E28" s="13">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
@@ -1147,6 +1179,7 @@
       <c r="D29" s="3">
         <v>0</v>
       </c>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
@@ -1174,6 +1207,7 @@
       <c r="D31" s="4">
         <v>0</v>
       </c>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
@@ -1182,12 +1216,13 @@
       <c r="B32" s="3">
         <v>1500</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="3">
         <v>2000</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="3">
         <v>1000</v>
       </c>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
@@ -1202,6 +1237,7 @@
       <c r="D33" s="3">
         <v>250</v>
       </c>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
@@ -1216,6 +1252,7 @@
       <c r="D34" s="3">
         <v>250</v>
       </c>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
@@ -1230,6 +1267,7 @@
       <c r="D35" s="3">
         <v>500</v>
       </c>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
@@ -1240,6 +1278,7 @@
       <c r="D36" s="3">
         <v>0</v>
       </c>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
@@ -1250,6 +1289,7 @@
       <c r="D37" s="3">
         <v>0</v>
       </c>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
@@ -1260,6 +1300,7 @@
       <c r="D38" s="3">
         <v>0</v>
       </c>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
@@ -1270,6 +1311,7 @@
       <c r="D39" s="3">
         <v>500</v>
       </c>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
@@ -1284,6 +1326,9 @@
       <c r="D40" s="3">
         <v>1750</v>
       </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
@@ -1296,6 +1341,7 @@
       <c r="D41" s="3">
         <v>0</v>
       </c>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
@@ -1308,6 +1354,7 @@
       <c r="D42" s="3">
         <v>0</v>
       </c>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
@@ -1322,6 +1369,7 @@
       <c r="D43" s="3">
         <v>0</v>
       </c>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
@@ -1336,6 +1384,7 @@
       <c r="D44" s="3">
         <v>500</v>
       </c>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
@@ -1350,6 +1399,7 @@
       <c r="D45" s="3">
         <v>2000</v>
       </c>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
@@ -1364,6 +1414,7 @@
       <c r="D46" s="3">
         <v>250</v>
       </c>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
@@ -1395,6 +1446,7 @@
       <c r="D48" s="6">
         <v>250</v>
       </c>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
@@ -1420,6 +1472,7 @@
       <c r="D50" s="3">
         <v>0</v>
       </c>
+      <c r="E50" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41DE156-FB35-4347-9F52-2DC4B0D914AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA230B5-0FCF-4A08-8F64-AD8E2BED2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2503'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>编号</t>
   </si>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>独家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -395,23 +399,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,6 +425,18 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,708 +775,708 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1000</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1000</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>250</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>5000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>5000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>8750</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12"/>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>2000</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>2000</v>
       </c>
-      <c r="D12" s="3">
-        <v>500</v>
-      </c>
-      <c r="E12" s="12"/>
+      <c r="D12" s="2">
+        <v>500</v>
+      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
-        <v>500</v>
-      </c>
-      <c r="C13" s="3">
-        <v>500</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="B13" s="2">
+        <v>500</v>
+      </c>
+      <c r="C13" s="2">
+        <v>500</v>
+      </c>
+      <c r="D13" s="2">
         <v>250</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
         <v>5000</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C18" s="2">
         <v>5000</v>
       </c>
-      <c r="D15" s="3">
-        <v>2250</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="D18" s="2">
+        <v>9750</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2">
         <v>5000</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C24" s="2">
         <v>5000</v>
       </c>
-      <c r="D18" s="3">
-        <v>9750</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="D24" s="2">
+        <v>6250</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2">
         <v>5000</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="2">
         <v>5000</v>
       </c>
-      <c r="D24" s="3">
-        <v>6250</v>
-      </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="D25" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2">
+        <v>500</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>250</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2">
         <v>5000</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C28" s="2">
         <v>5000</v>
       </c>
-      <c r="D25" s="3">
-        <v>2500</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="D28" s="2">
+        <v>4250</v>
+      </c>
+      <c r="E28" s="9">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="5">
-        <v>500</v>
-      </c>
-      <c r="C27" s="5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2">
+        <v>800</v>
+      </c>
+      <c r="C30" s="2">
         <v>1000</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D30" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2">
+        <v>500</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="2">
         <v>250</v>
       </c>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4250</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2">
+        <v>500</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="2">
+        <v>250</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2">
+        <v>500</v>
+      </c>
+      <c r="C35" s="2">
+        <v>500</v>
+      </c>
+      <c r="D35" s="2">
+        <v>500</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>500</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="2">
+        <v>500</v>
+      </c>
+      <c r="C43" s="2">
+        <v>500</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="2">
         <v>800</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C44" s="2">
         <v>1000</v>
       </c>
-      <c r="D30" s="3">
-        <v>1250</v>
-      </c>
-      <c r="E30" s="12" t="s">
+      <c r="D44" s="2">
+        <v>500</v>
+      </c>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="2">
+        <v>500</v>
+      </c>
+      <c r="C46" s="2">
+        <v>500</v>
+      </c>
+      <c r="D46" s="2">
+        <v>250</v>
+      </c>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="2">
+        <v>500</v>
+      </c>
+      <c r="C47" s="2">
+        <v>500</v>
+      </c>
+      <c r="D47" s="2">
+        <v>250</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="3">
-        <v>500</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D33" s="3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="12">
+        <v>500</v>
+      </c>
+      <c r="C48" s="12">
+        <v>500</v>
+      </c>
+      <c r="D48" s="12">
         <v>250</v>
       </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="3">
-        <v>500</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="2">
+        <v>500</v>
+      </c>
+      <c r="C49" s="2">
+        <v>500</v>
+      </c>
+      <c r="D49" s="2">
         <v>250</v>
       </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="3">
-        <v>500</v>
-      </c>
-      <c r="C35" s="3">
-        <v>500</v>
-      </c>
-      <c r="D35" s="3">
-        <v>500</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3">
-        <v>500</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1750</v>
-      </c>
-      <c r="E40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="3">
-        <v>500</v>
-      </c>
-      <c r="C43" s="3">
-        <v>500</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="3">
-        <v>800</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>500</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="3">
-        <v>500</v>
-      </c>
-      <c r="C46" s="3">
-        <v>500</v>
-      </c>
-      <c r="D46" s="3">
-        <v>250</v>
-      </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="3">
-        <v>500</v>
-      </c>
-      <c r="C47" s="3">
-        <v>500</v>
-      </c>
-      <c r="D47" s="3">
-        <v>250</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="6">
-        <v>500</v>
-      </c>
-      <c r="C48" s="6">
-        <v>500</v>
-      </c>
-      <c r="D48" s="6">
-        <v>250</v>
-      </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="3">
-        <v>500</v>
-      </c>
-      <c r="C49" s="3">
-        <v>500</v>
-      </c>
-      <c r="D49" s="3">
-        <v>250</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="7"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="12"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA230B5-0FCF-4A08-8F64-AD8E2BED2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4F5159-1600-40CB-853F-60ED14963A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>编号</t>
   </si>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>独家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -399,9 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -411,9 +412,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,9 +424,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -437,6 +432,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,708 +779,708 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1000</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1000</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1000</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>250</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>5000</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>5000</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>8750</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>2000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2000</v>
       </c>
-      <c r="D12" s="2">
-        <v>500</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="D12" s="1">
+        <v>500</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2">
-        <v>500</v>
-      </c>
-      <c r="C13" s="2">
-        <v>500</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="1">
+        <v>500</v>
+      </c>
+      <c r="C13" s="1">
+        <v>500</v>
+      </c>
+      <c r="D13" s="1">
         <v>250</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>5000</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>5000</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>9750</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1">
         <v>5000</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="1">
+        <v>6250</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
         <v>5000</v>
       </c>
-      <c r="D24" s="2">
-        <v>6250</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="C25" s="1">
         <v>5000</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1">
+        <v>500</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>250</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
         <v>5000</v>
       </c>
-      <c r="D25" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C28" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4250</v>
+      </c>
+      <c r="E28" s="7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="2">
-        <v>500</v>
-      </c>
-      <c r="C27" s="2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>800</v>
+      </c>
+      <c r="C30" s="1">
         <v>1000</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D30" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>500</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="1">
         <v>250</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4250</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>500</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>250</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1">
+        <v>500</v>
+      </c>
+      <c r="C35" s="1">
+        <v>500</v>
+      </c>
+      <c r="D35" s="1">
+        <v>500</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <v>500</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1">
+        <v>500</v>
+      </c>
+      <c r="C43" s="1">
+        <v>500</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="1">
         <v>800</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C44" s="1">
         <v>1000</v>
       </c>
-      <c r="D30" s="2">
-        <v>1250</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D44" s="1">
+        <v>500</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="1">
+        <v>500</v>
+      </c>
+      <c r="C46" s="1">
+        <v>500</v>
+      </c>
+      <c r="D46" s="1">
+        <v>250</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1">
+        <v>500</v>
+      </c>
+      <c r="C47" s="1">
+        <v>500</v>
+      </c>
+      <c r="D47" s="1">
+        <v>250</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1500</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="2">
-        <v>500</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D33" s="2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="9">
+        <v>500</v>
+      </c>
+      <c r="C48" s="9">
+        <v>500</v>
+      </c>
+      <c r="D48" s="9">
         <v>250</v>
       </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="2">
-        <v>500</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="1">
+        <v>500</v>
+      </c>
+      <c r="C49" s="1">
+        <v>500</v>
+      </c>
+      <c r="D49" s="1">
         <v>250</v>
       </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="2">
-        <v>500</v>
-      </c>
-      <c r="C35" s="2">
-        <v>500</v>
-      </c>
-      <c r="D35" s="2">
-        <v>500</v>
-      </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
-        <v>500</v>
-      </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="2">
-        <v>500</v>
-      </c>
-      <c r="C43" s="2">
-        <v>500</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="2">
-        <v>800</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D44" s="2">
-        <v>500</v>
-      </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C45" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="2">
-        <v>500</v>
-      </c>
-      <c r="C46" s="2">
-        <v>500</v>
-      </c>
-      <c r="D46" s="2">
-        <v>250</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="2">
-        <v>500</v>
-      </c>
-      <c r="C47" s="2">
-        <v>500</v>
-      </c>
-      <c r="D47" s="2">
-        <v>250</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="12">
-        <v>500</v>
-      </c>
-      <c r="C48" s="12">
-        <v>500</v>
-      </c>
-      <c r="D48" s="12">
-        <v>250</v>
-      </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="2">
-        <v>500</v>
-      </c>
-      <c r="C49" s="2">
-        <v>500</v>
-      </c>
-      <c r="D49" s="2">
-        <v>250</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4F5159-1600-40CB-853F-60ED14963A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BC5E67-8213-4E3B-81A8-5DE47F57A246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
   <sheets>
     <sheet name="2503" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>编号</t>
   </si>
@@ -280,6 +280,10 @@
   </si>
   <si>
     <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11155</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -777,22 +781,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -809,7 +813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -820,7 +824,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -837,7 +841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -852,7 +856,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -867,7 +871,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -884,7 +888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -899,7 +903,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -910,11 +914,11 @@
         <v>5000</v>
       </c>
       <c r="D8" s="1">
-        <v>8750</v>
+        <v>4000</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -929,7 +933,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -940,7 +944,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -951,7 +955,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -966,7 +970,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -981,7 +985,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -992,7 +996,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1007,7 +1011,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1022,7 +1026,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1033,7 +1037,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1044,11 +1048,11 @@
         <v>5000</v>
       </c>
       <c r="D18" s="1">
-        <v>9750</v>
+        <v>6000</v>
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1059,7 +1063,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1070,7 +1074,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1081,7 +1085,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1092,7 +1096,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1103,7 +1107,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -1114,11 +1118,11 @@
         <v>5000</v>
       </c>
       <c r="D24" s="1">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -1129,13 +1133,13 @@
         <v>5000</v>
       </c>
       <c r="D25" s="1">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="E25" s="7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -1146,7 +1150,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -1161,7 +1165,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -1172,13 +1176,13 @@
         <v>5000</v>
       </c>
       <c r="D28" s="1">
-        <v>4250</v>
+        <v>10000</v>
       </c>
       <c r="E28" s="7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -1189,7 +1193,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -1200,13 +1204,13 @@
         <v>1000</v>
       </c>
       <c r="D30" s="1">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1217,7 +1221,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -1232,7 +1236,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -1247,7 +1251,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1262,7 +1266,7 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
@@ -1277,7 +1281,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
@@ -1288,7 +1292,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
@@ -1299,7 +1303,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
@@ -1310,7 +1314,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1325,7 @@
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
@@ -1351,82 +1355,82 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
+      <c r="B43" s="1">
+        <v>100</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
+      <c r="D43" s="1">
+        <v>100</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="1">
-        <v>500</v>
-      </c>
-      <c r="C43" s="1">
-        <v>500</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="1">
+        <v>500</v>
+      </c>
+      <c r="C44" s="1">
+        <v>500</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="1">
         <v>800</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <v>1000</v>
       </c>
-      <c r="D44" s="1">
-        <v>500</v>
-      </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
+      <c r="D45" s="1">
+        <v>500</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B46" s="1">
         <v>2000</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <v>2000</v>
       </c>
-      <c r="D45" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
+      <c r="D46" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B46" s="1">
-        <v>500</v>
-      </c>
-      <c r="C46" s="1">
-        <v>500</v>
-      </c>
-      <c r="D46" s="1">
-        <v>250</v>
-      </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="B47" s="1">
         <v>500</v>
@@ -1437,50 +1441,65 @@
       <c r="D47" s="1">
         <v>250</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1">
+        <v>500</v>
+      </c>
+      <c r="C48" s="1">
+        <v>500</v>
+      </c>
+      <c r="D48" s="1">
+        <v>250</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="9">
-        <v>500</v>
-      </c>
-      <c r="C48" s="9">
-        <v>500</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="B49" s="9">
+        <v>500</v>
+      </c>
+      <c r="C49" s="9">
+        <v>500</v>
+      </c>
+      <c r="D49" s="9">
         <v>250</v>
       </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="1">
-        <v>500</v>
-      </c>
-      <c r="C49" s="1">
-        <v>500</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B50" s="1">
+        <v>500</v>
+      </c>
+      <c r="C50" s="1">
+        <v>500</v>
+      </c>
+      <c r="D50" s="1">
         <v>250</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BC5E67-8213-4E3B-81A8-5DE47F57A246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC73AD4-B3F5-4982-8650-0E3E1192CCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
   <sheets>
     <sheet name="2503" sheetId="1" r:id="rId1"/>
@@ -783,20 +783,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -813,7 +813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -824,7 +824,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -841,7 +841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -856,7 +856,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -888,7 +888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -903,7 +903,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -918,7 +918,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -933,7 +933,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -944,7 +944,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -955,7 +955,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -970,7 +970,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -985,7 +985,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -996,7 +996,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>62</v>
       </c>
@@ -1368,22 +1368,22 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>34</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>35</v>
       </c>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>40</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C2B3C3-C0B6-4C29-9D8E-7FAEC38179A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D01846-1322-4FBA-9151-A13015D74CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1021F4-B125-4B50-883B-025E82D023CC}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -816,129 +816,127 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6">
+        <v>500</v>
+      </c>
+      <c r="C2" s="6">
+        <v>500</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="6">
-        <v>500</v>
-      </c>
-      <c r="C3" s="6">
-        <v>500</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C4" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D4" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
-        <v>48</v>
+      <c r="A5" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="6">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C6" s="6">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="6">
-        <v>500</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="6">
+        <v>800</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1000</v>
+      </c>
       <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>9</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="6">
+        <v>500</v>
+      </c>
+      <c r="C8" s="6">
+        <v>500</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>9</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -948,28 +946,26 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>9</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
-        <v>17</v>
+      <c r="A11" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D11" s="6">
         <v>0</v>
       </c>
@@ -979,20 +975,24 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="E12" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1000,19 +1000,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="6">
         <v>0</v>
       </c>
@@ -1022,7 +1018,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1035,7 +1031,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1048,62 +1044,74 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B17" s="6">
+        <v>500</v>
+      </c>
+      <c r="C17" s="6">
+        <v>500</v>
+      </c>
       <c r="D17" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E17" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="B18" s="6">
+        <v>500</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1000</v>
+      </c>
       <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>9</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
       <c r="D19" s="6">
         <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2000</v>
+      </c>
       <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>9</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="6">
         <v>0</v>
       </c>
@@ -1113,20 +1121,24 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="B22" s="6">
+        <v>800</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1000</v>
+      </c>
       <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>9</v>
+        <v>4000</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1134,43 +1146,47 @@
         <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C24" s="6">
+        <v>5000</v>
+      </c>
       <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>9</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B25" s="6">
+        <v>500</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1000</v>
+      </c>
       <c r="D25" s="6">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E25" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
-        <v>31</v>
+      <c r="A26" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>0</v>
       </c>
@@ -1180,92 +1196,78 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B27" s="6">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>8</v>
+        <v>5000</v>
+      </c>
+      <c r="C27" s="6">
+        <v>5000</v>
       </c>
       <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>9</v>
-      </c>
+        <v>8000</v>
+      </c>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="6">
-        <v>0</v>
+      <c r="A28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C28" s="6">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="6">
         <v>0</v>
       </c>
       <c r="E29" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="9">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="A30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
         <v>0</v>
       </c>
       <c r="E30" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
+      <c r="A31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="6">
         <v>0</v>
       </c>
       <c r="E31" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
-        <v>18</v>
+      <c r="A32" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1273,220 +1275,212 @@
         <v>0</v>
       </c>
       <c r="E32" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="6">
-        <v>500</v>
-      </c>
-      <c r="C33" s="6">
-        <v>500</v>
-      </c>
+      <c r="A33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="6">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E33" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B34" s="6">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C34" s="6">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D34" s="6">
-        <v>250</v>
-      </c>
-      <c r="E34" s="7">
-        <v>3</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="6">
-        <v>500</v>
-      </c>
-      <c r="C35" s="6">
-        <v>500</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
       </c>
       <c r="E36" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D37" s="6">
-        <v>250</v>
+        <v>23</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="E37" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>5</v>
+      <c r="A38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
+        <v>0</v>
       </c>
       <c r="E38" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>5</v>
+      <c r="A39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="6">
+        <v>500</v>
       </c>
       <c r="C39" s="6">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D39" s="6">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E39" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B40" s="6">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C40" s="6">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D40" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E40" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="6">
-        <v>5000</v>
-      </c>
-      <c r="C41" s="6">
-        <v>5000</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E41" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="6">
-        <v>5000</v>
-      </c>
-      <c r="C42" s="6">
-        <v>5000</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="6">
-        <v>8000</v>
-      </c>
-      <c r="E42" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="6">
-        <v>5000</v>
-      </c>
-      <c r="C43" s="6">
-        <v>5000</v>
+        <v>16</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D43" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E43" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B44" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C44" s="6">
+        <v>5000</v>
+      </c>
       <c r="D44" s="6">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B45" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C45" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D45" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="E45" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B46" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C46" s="6">
         <v>1000</v>
@@ -1494,65 +1488,73 @@
       <c r="D46" s="6">
         <v>1000</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="6">
-        <v>1500</v>
-      </c>
-      <c r="C47" s="6"/>
+      <c r="A47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D47" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E47" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="6">
-        <v>500</v>
-      </c>
-      <c r="C48" s="6">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D48" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="6">
-        <v>800</v>
-      </c>
-      <c r="C49" s="6">
-        <v>1000</v>
+        <v>10</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D49" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C50" s="6">
-        <v>2000</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
@@ -1566,7 +1568,7 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{B64B7257-7777-44DA-82FC-2A7918955D58}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
-      <sortCondition descending="1" ref="E1"/>
+      <sortCondition descending="1" ref="A1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D01846-1322-4FBA-9151-A13015D74CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CA46D-D6FF-4083-85E0-57A642A5B816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>编号</t>
   </si>
@@ -268,17 +268,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>独家</t>
-  </si>
-  <si>
     <t>11155</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>独家4</t>
-  </si>
-  <si>
-    <t>独家6</t>
+    <t>独家？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家4？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家6？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -784,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1021F4-B125-4B50-883B-025E82D023CC}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -863,7 +866,7 @@
         <v>500</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -896,7 +899,9 @@
       <c r="D6" s="6">
         <v>4000</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="12">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
@@ -911,7 +916,9 @@
       <c r="D7" s="6">
         <v>2000</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="12">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
@@ -947,7 +954,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6">
         <v>1500</v>
@@ -986,8 +993,8 @@
       <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="7">
-        <v>3</v>
+      <c r="E12" s="12">
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1104,7 +1111,9 @@
       <c r="D20" s="6">
         <v>1000</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="12">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
@@ -1132,8 +1141,8 @@
       <c r="D22" s="6">
         <v>4000</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>58</v>
+      <c r="E22" s="12">
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1162,7 +1171,9 @@
       <c r="D24" s="6">
         <v>10000</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
@@ -1207,7 +1218,9 @@
       <c r="D27" s="6">
         <v>8000</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
@@ -1222,8 +1235,8 @@
       <c r="D28" s="6">
         <v>0</v>
       </c>
-      <c r="E28" s="7">
-        <v>2</v>
+      <c r="E28" s="12">
+        <v>0.7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1489,7 +1502,7 @@
         <v>1000</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CA46D-D6FF-4083-85E0-57A642A5B816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E75942-64CE-4485-9F77-6F0904B1AA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>编号</t>
   </si>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1021F4-B125-4B50-883B-025E82D023CC}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -857,13 +857,13 @@
         <v>38</v>
       </c>
       <c r="B4" s="6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C4" s="6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D4" s="6">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>59</v>
@@ -897,7 +897,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="6">
-        <v>4000</v>
+        <v>5600</v>
       </c>
       <c r="E6" s="12">
         <v>0.4</v>
@@ -908,13 +908,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="6">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="6">
         <v>1000</v>
       </c>
       <c r="D7" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="12">
         <v>0.4</v>
@@ -925,13 +925,13 @@
         <v>33</v>
       </c>
       <c r="B8" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -959,9 +959,11 @@
       <c r="B10" s="6">
         <v>1500</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6">
+        <v>1500</v>
+      </c>
       <c r="D10" s="6">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -984,14 +986,14 @@
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>5</v>
+      <c r="B12" s="6">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4000</v>
       </c>
       <c r="E12" s="12">
         <v>0.4</v>
@@ -1054,13 +1056,13 @@
         <v>53</v>
       </c>
       <c r="B17" s="6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C17" s="6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D17" s="6">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -1071,13 +1073,13 @@
         <v>52</v>
       </c>
       <c r="B18" s="6">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C18" s="6">
         <v>1000</v>
       </c>
       <c r="D18" s="6">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1103,13 +1105,13 @@
         <v>50</v>
       </c>
       <c r="B20" s="6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C20" s="6">
         <v>2000</v>
       </c>
       <c r="D20" s="6">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="12">
         <v>0.6</v>
@@ -1133,13 +1135,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="6">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="C22" s="6">
         <v>1000</v>
       </c>
       <c r="D22" s="6">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="E22" s="12">
         <v>0.4</v>
@@ -1163,13 +1165,13 @@
         <v>46</v>
       </c>
       <c r="B24" s="6">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="C24" s="6">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D24" s="6">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="E24" s="12">
         <v>0.6</v>
@@ -1180,17 +1182,15 @@
         <v>45</v>
       </c>
       <c r="B25" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C25" s="6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D25" s="6">
-        <v>250</v>
-      </c>
-      <c r="E25" s="7">
-        <v>3</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
@@ -1216,7 +1216,7 @@
         <v>5000</v>
       </c>
       <c r="D27" s="6">
-        <v>8000</v>
+        <v>1300</v>
       </c>
       <c r="E27" s="12">
         <v>0.2</v>
@@ -1353,18 +1353,16 @@
       <c r="A37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="7">
-        <v>2</v>
-      </c>
+      <c r="B37" s="6">
+        <v>1500</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D37" s="6">
+        <v>5500</v>
+      </c>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
@@ -1384,17 +1382,15 @@
         <v>21</v>
       </c>
       <c r="B39" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C39" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D39" s="6">
-        <v>250</v>
-      </c>
-      <c r="E39" s="7">
-        <v>3</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
@@ -1476,30 +1472,28 @@
         <v>14</v>
       </c>
       <c r="B45" s="6">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C45" s="6">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D45" s="6">
-        <v>250</v>
-      </c>
-      <c r="E45" s="7">
-        <v>2</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C46" s="6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D46" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>59</v>

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E75942-64CE-4485-9F77-6F0904B1AA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1544CA-F548-43E6-BBE4-9E20A87759BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2503'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -785,10 +785,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1021F4-B125-4B50-883B-025E82D023CC}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -863,7 +864,7 @@
         <v>600</v>
       </c>
       <c r="D4" s="6">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>59</v>
@@ -897,7 +898,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="6">
-        <v>5600</v>
+        <v>9000</v>
       </c>
       <c r="E6" s="12">
         <v>0.4</v>
@@ -914,7 +915,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="6">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E7" s="12">
         <v>0.4</v>
@@ -931,7 +932,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -963,7 +964,7 @@
         <v>1500</v>
       </c>
       <c r="D10" s="6">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -993,7 +994,7 @@
         <v>1500</v>
       </c>
       <c r="D12" s="6">
-        <v>4000</v>
+        <v>7200</v>
       </c>
       <c r="E12" s="12">
         <v>0.4</v>
@@ -1051,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>53</v>
       </c>
@@ -1062,13 +1063,13 @@
         <v>600</v>
       </c>
       <c r="D17" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>52</v>
       </c>
@@ -1079,11 +1080,11 @@
         <v>1000</v>
       </c>
       <c r="D18" s="6">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
@@ -1111,13 +1112,13 @@
         <v>2000</v>
       </c>
       <c r="D20" s="6">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="12">
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>48</v>
       </c>
@@ -1141,13 +1142,13 @@
         <v>1000</v>
       </c>
       <c r="D22" s="6">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="E22" s="12">
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>47</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
@@ -1171,13 +1172,17 @@
         <v>2000</v>
       </c>
       <c r="D24" s="6">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="E24" s="12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.9</v>
+      </c>
+      <c r="G24" s="8">
+        <f>18*0.9</f>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>45</v>
       </c>
@@ -1188,11 +1193,11 @@
         <v>100</v>
       </c>
       <c r="D25" s="6">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
@@ -1205,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -1216,13 +1221,17 @@
         <v>5000</v>
       </c>
       <c r="D27" s="6">
-        <v>1300</v>
+        <v>7000</v>
       </c>
       <c r="E27" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="8">
+        <f>23.4*E27</f>
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>42</v>
       </c>
@@ -1233,13 +1242,17 @@
         <v>5000</v>
       </c>
       <c r="D28" s="6">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="E28" s="12">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G28" s="8">
+        <f>25*E28</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>37</v>
       </c>
@@ -1265,7 +1278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1388,7 +1401,7 @@
         <v>100</v>
       </c>
       <c r="D39" s="6">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="E39" s="7"/>
     </row>
@@ -1478,7 +1491,7 @@
         <v>300</v>
       </c>
       <c r="D45" s="6">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="7"/>
     </row>

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1544CA-F548-43E6-BBE4-9E20A87759BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715A57AC-E1F8-4435-A709-808C712D1590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>编号</t>
   </si>
@@ -281,6 +281,10 @@
   </si>
   <si>
     <t>独家6？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥不供</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -788,8 +792,8 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1322,15 +1326,17 @@
         <v>26</v>
       </c>
       <c r="B34" s="6">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C34" s="6">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E34" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
@@ -1367,15 +1373,17 @@
         <v>23</v>
       </c>
       <c r="B37" s="6">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="C37" s="6">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D37" s="6">
-        <v>5500</v>
-      </c>
-      <c r="E37" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
@@ -1403,7 +1411,9 @@
       <c r="D39" s="6">
         <v>1500</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
@@ -1418,8 +1428,8 @@
       <c r="D40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="7">
-        <v>6</v>
+      <c r="E40" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1470,15 +1480,17 @@
         <v>15</v>
       </c>
       <c r="B44" s="6">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C44" s="6">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D44" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E44" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
@@ -1493,7 +1505,9 @@
       <c r="D45" s="6">
         <v>3000</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">

--- a/script/data/list.xlsx
+++ b/script/data/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishel\Desktop\编程总库\MeidiAuto\script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715A57AC-E1F8-4435-A709-808C712D1590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC90C3D-002F-4278-873E-EC51A9C60919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B3F25FD5-23CB-4961-973D-5F7EFE73029E}"/>
   </bookViews>
@@ -792,15 +792,15 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.73046875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.9296875" style="14" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1328125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.06640625" style="8"/>
@@ -862,10 +862,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="6">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="6">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="6">
         <v>2800</v>
@@ -896,10 +896,10 @@
         <v>35</v>
       </c>
       <c r="B6" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C6" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D6" s="6">
         <v>9000</v>
@@ -962,10 +962,10 @@
         <v>58</v>
       </c>
       <c r="B10" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="6">
         <v>3000</v>
@@ -992,10 +992,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C12" s="6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D12" s="6">
         <v>7200</v>
@@ -1061,10 +1061,10 @@
         <v>53</v>
       </c>
       <c r="B17" s="6">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C17" s="6">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="6">
         <v>3000</v>
@@ -1078,10 +1078,10 @@
         <v>52</v>
       </c>
       <c r="B18" s="6">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="C18" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D18" s="6">
         <v>4500</v>
@@ -1110,10 +1110,10 @@
         <v>50</v>
       </c>
       <c r="B20" s="6">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="C20" s="6">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="D20" s="6">
         <v>15000</v>
@@ -1143,7 +1143,7 @@
         <v>2000</v>
       </c>
       <c r="C22" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D22" s="6">
         <v>6000</v>
@@ -1170,10 +1170,10 @@
         <v>46</v>
       </c>
       <c r="B24" s="6">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C24" s="6">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D24" s="6">
         <v>16000</v>
@@ -1191,10 +1191,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="6">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="C25" s="6">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="D25" s="6">
         <v>1500</v>
@@ -1219,10 +1219,10 @@
         <v>43</v>
       </c>
       <c r="B27" s="6">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C27" s="6">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D27" s="6">
         <v>7000</v>
